--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/8-Enseñanza/RR-workshop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB335DF-8E78-CD40-890C-2866A63FF6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1E877-697F-D74E-9770-0F2888A333FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="1" xr2:uid="{E38497EA-B483-2C43-9968-36BF0C541ADF}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{E38497EA-B483-2C43-9968-36BF0C541ADF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Attrakdiff" sheetId="1" r:id="rId1"/>
     <sheet name="UEQ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Left</t>
   </si>
@@ -769,12 +769,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EBBD9A-C5D2-7C48-BC50-9180C6A3C69B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -783,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AD8D8D-D8C9-8948-9853-BC0A218B380F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Parameters.xlsx
+++ b/data/Parameters.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/8-Enseñanza/RR-workshop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1E877-697F-D74E-9770-0F2888A333FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416A9D6-ED9E-FC42-95FF-85DA3669FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{E38497EA-B483-2C43-9968-36BF0C541ADF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{E38497EA-B483-2C43-9968-36BF0C541ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Attrakdiff" sheetId="1" r:id="rId1"/>
     <sheet name="UEQ" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Attrakdiff!$A$1:$F$29</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="164">
   <si>
     <t>Left</t>
   </si>
@@ -306,13 +309,235 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Humain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique </t>
+  </si>
+  <si>
+    <t>Me sociabilise</t>
+  </si>
+  <si>
+    <t>M'isole</t>
+  </si>
+  <si>
+    <t>Plaisant</t>
+  </si>
+  <si>
+    <t>Déplaissant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original </t>
+  </si>
+  <si>
+    <t>Conventionnnel</t>
+  </si>
+  <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
+    <t>Amateur</t>
+  </si>
+  <si>
+    <t>Laid</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>Pratique</t>
+  </si>
+  <si>
+    <t>Pas pratique</t>
+  </si>
+  <si>
+    <t>Agreable</t>
+  </si>
+  <si>
+    <t>Désagreable</t>
+  </si>
+  <si>
+    <t>Fastideux</t>
+  </si>
+  <si>
+    <t>De bon goût</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De mauvais goût</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prévisible </t>
+  </si>
+  <si>
+    <t>Bas de gamme</t>
+  </si>
+  <si>
+    <t>Haut de gamme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M'exclut </t>
+  </si>
+  <si>
+    <t>M'intègre</t>
+  </si>
+  <si>
+    <t>Me rapproche des autres</t>
+  </si>
+  <si>
+    <t>Me separe des autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non présentable </t>
+  </si>
+  <si>
+    <t>Présentable</t>
+  </si>
+  <si>
+    <t>Rebutant</t>
+  </si>
+  <si>
+    <t>Attirant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sans imagination </t>
+  </si>
+  <si>
+    <t>Créatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bon </t>
+  </si>
+  <si>
+    <t>Mauvais</t>
+  </si>
+  <si>
+    <t>Confus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repoussant </t>
+  </si>
+  <si>
+    <t>Audacieux</t>
+  </si>
+  <si>
+    <t>Prudent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novateur </t>
+  </si>
+  <si>
+    <t>Ennuyeyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peu exegeant </t>
+  </si>
+  <si>
+    <t>Challenging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivant </t>
+  </si>
+  <si>
+    <t>Décourageant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouveau </t>
+  </si>
+  <si>
+    <t>Commun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incontrôlable </t>
+  </si>
+  <si>
+    <t>Maîtrisable</t>
+  </si>
+  <si>
+    <t>QP1</t>
+  </si>
+  <si>
+    <t>QHI1</t>
+  </si>
+  <si>
+    <t>QHS1</t>
+  </si>
+  <si>
+    <t>QP2</t>
+  </si>
+  <si>
+    <t>QHI2</t>
+  </si>
+  <si>
+    <t>QP3</t>
+  </si>
+  <si>
+    <t>QP4</t>
+  </si>
+  <si>
+    <t>QHI3</t>
+  </si>
+  <si>
+    <t>QP5</t>
+  </si>
+  <si>
+    <t>QHI4</t>
+  </si>
+  <si>
+    <t>QHI5</t>
+  </si>
+  <si>
+    <t>QHI6</t>
+  </si>
+  <si>
+    <t>QHI7</t>
+  </si>
+  <si>
+    <t>QHS2</t>
+  </si>
+  <si>
+    <t>QP6</t>
+  </si>
+  <si>
+    <t>QHS3</t>
+  </si>
+  <si>
+    <t>QHS4</t>
+  </si>
+  <si>
+    <t>QHS5</t>
+  </si>
+  <si>
+    <t>QHS6</t>
+  </si>
+  <si>
+    <t>ATT7</t>
+  </si>
+  <si>
+    <t>QHS7</t>
+  </si>
+  <si>
+    <t>QP7</t>
+  </si>
+  <si>
+    <t>Qualité pragmatique</t>
+  </si>
+  <si>
+    <t>Qualité hédonique - stimulation</t>
+  </si>
+  <si>
+    <t>Qualité hédonique - identification</t>
+  </si>
+  <si>
+    <t>Attractivité globale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,6 +557,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -347,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -420,11 +652,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,6 +699,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,13 +1028,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EBBD9A-C5D2-7C48-BC50-9180C6A3C69B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -793,11 +1058,536 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="16"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F29" xr:uid="{A0EBBD9A-C5D2-7C48-BC50-9180C6A3C69B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -806,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AD8D8D-D8C9-8948-9853-BC0A218B380F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
